--- a/Periode 12 Kerntaak 1,2,3/KT1/KT1.2/KT1.2.6 Globale planning/Globale Planning v1.2.0.xlsx
+++ b/Periode 12 Kerntaak 1,2,3/KT1/KT1.2/KT1.2.6 Globale planning/Globale Planning v1.2.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenley Strik\Documents\GitKraken\Periode_12_PVB_Kenley_Strik\Periode 12 Kerntaak 1,2,3\KT1\KT1.2\KT1.2.6 Globale planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{45D943B0-E9E9-4769-A17C-83C47EF75F42}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globale Planning" sheetId="1" r:id="rId1"/>
@@ -293,9 +294,6 @@
     <t>4 uur 20 min</t>
   </si>
   <si>
-    <t>Week van: 9-3-2018</t>
-  </si>
-  <si>
     <t>1 uur 40 min</t>
   </si>
   <si>
@@ -306,12 +304,15 @@
   </si>
   <si>
     <t>Opzetten ontwikkelomgeving</t>
+  </si>
+  <si>
+    <t>Week van: 9-4-2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -727,11 +728,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -1225,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>13</v>
@@ -1447,13 +1448,13 @@
         <v>19</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" s="8">
         <v>18</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>13</v>
@@ -1725,7 +1726,7 @@
         <v>28</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" s="7">
         <v>27</v>
